--- a/excel/itens_extraidos.xlsx
+++ b/excel/itens_extraidos.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\extracao_itens-sei\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB624A-2CBE-458B-A158-653C80BEE2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="PROCESSO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +24,345 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+  <si>
+    <t>NOME ARQUIVO</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>TAMANHO/GENERO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>50500.354871/2023-82</t>
+  </si>
+  <si>
+    <t>50500.354871/2023-83</t>
+  </si>
+  <si>
+    <t>50500.065856/2024-43</t>
+  </si>
+  <si>
+    <t>50500.072107/2024-72</t>
+  </si>
+  <si>
+    <t>50500.070610/2023</t>
+  </si>
+  <si>
+    <t>50500.070610/2024</t>
+  </si>
+  <si>
+    <t>50500.097531/2023-49</t>
+  </si>
+  <si>
+    <t>50500.069493/2023-34</t>
+  </si>
+  <si>
+    <t>50500.083279/2024-71</t>
+  </si>
+  <si>
+    <t>50500.083283/2024-30</t>
+  </si>
+  <si>
+    <t>50500.061836/2023-12</t>
+  </si>
+  <si>
+    <t>50500.371721/2023-33</t>
+  </si>
+  <si>
+    <t>50500.095320/2024-52</t>
+  </si>
+  <si>
+    <t>50500.103756/2024-22</t>
+  </si>
+  <si>
+    <t>50500.101346/2024-47</t>
+  </si>
+  <si>
+    <t>50500.055804/2024-69</t>
+  </si>
+  <si>
+    <t>50500.195624/2023-38</t>
+  </si>
+  <si>
+    <t>50500.162966/2024-52</t>
+  </si>
+  <si>
+    <t>50500.162966/2024-53</t>
+  </si>
+  <si>
+    <t>50500.162966/2024-54</t>
+  </si>
+  <si>
+    <t>50500.160894/2024-17</t>
+  </si>
+  <si>
+    <t>50500.336387/2023-71</t>
+  </si>
+  <si>
+    <t>50500.165361/2024-13</t>
+  </si>
+  <si>
+    <t>50500.160890/2024-21</t>
+  </si>
+  <si>
+    <t>50500.366756/2023-51</t>
+  </si>
+  <si>
+    <t>50500.361701/2023-54</t>
+  </si>
+  <si>
+    <t>50500.162095/2024-77</t>
+  </si>
+  <si>
+    <t>50500.157496/2024-13</t>
+  </si>
+  <si>
+    <t>50500.358741/2023-19</t>
+  </si>
+  <si>
+    <t>50500.194287/2023-61</t>
+  </si>
+  <si>
+    <t>50500.169014/2024-60</t>
+  </si>
+  <si>
+    <t>50500.357585/2023-79</t>
+  </si>
+  <si>
+    <t>50500.121460/2023-11</t>
+  </si>
+  <si>
+    <t>50500.302222/2023-04</t>
+  </si>
+  <si>
+    <t>50500.031279/2024-96</t>
+  </si>
+  <si>
+    <t>50500.175248/2024-46</t>
+  </si>
+  <si>
+    <t>50500.181605/2024-13</t>
+  </si>
+  <si>
+    <t>50500.181651/2024-12</t>
+  </si>
+  <si>
+    <t>50500.181671/2024-85</t>
+  </si>
+  <si>
+    <t>50500.181321/2024-19</t>
+  </si>
+  <si>
+    <t>50500.181541/2024-42</t>
+  </si>
+  <si>
+    <t>50500.181913/2024-31</t>
+  </si>
+  <si>
+    <t>50500.182862/2024-64</t>
+  </si>
+  <si>
+    <t>50500.182826/2024-09</t>
+  </si>
+  <si>
+    <t>50500.182745/2024-09</t>
+  </si>
+  <si>
+    <t>50500.181548/2024-64</t>
+  </si>
+  <si>
+    <t>50500.182130/2024-74</t>
+  </si>
+  <si>
+    <t>50500.182776/2024-51</t>
+  </si>
+  <si>
+    <t>50500.183235/2024-41</t>
+  </si>
+  <si>
+    <t>50500.183841/2024-66</t>
+  </si>
+  <si>
+    <t>50500.182594/2024-81</t>
+  </si>
+  <si>
+    <t>50500.177416/2024-38</t>
+  </si>
+  <si>
+    <t>50500.008290/2025-33</t>
+  </si>
+  <si>
+    <t>50500.185062/2023-14</t>
+  </si>
+  <si>
+    <t>50500.157746/2024-15</t>
+  </si>
+  <si>
+    <t>50500113139/2024-35</t>
+  </si>
+  <si>
+    <t>50500041126/2025-65</t>
+  </si>
+  <si>
+    <t>50500008737/2025-74</t>
+  </si>
+  <si>
+    <t>50500016129/2025-33</t>
+  </si>
+  <si>
+    <t>50500041643/2025-34</t>
+  </si>
+  <si>
+    <t>50500016072/2025-72</t>
+  </si>
+  <si>
+    <t>50500011740/2025-75</t>
+  </si>
+  <si>
+    <t>50500016796/2025-16</t>
+  </si>
+  <si>
+    <t>50500173563/2024-39</t>
+  </si>
+  <si>
+    <t>50500182605/2024-22</t>
+  </si>
+  <si>
+    <t>50500016982/2025-55</t>
+  </si>
+  <si>
+    <t>50500016659/2025-81</t>
+  </si>
+  <si>
+    <t>50500182130/2024-74</t>
+  </si>
+  <si>
+    <t>50500185508/2024-91</t>
+  </si>
+  <si>
+    <t>50500184652/2024-19</t>
+  </si>
+  <si>
+    <t>5050087909/2024-87</t>
+  </si>
+  <si>
+    <t>50500178137/2024-91</t>
+  </si>
+  <si>
+    <t>50500016214/2025-00</t>
+  </si>
+  <si>
+    <t>50500067010/2023-67</t>
+  </si>
+  <si>
+    <t>50500016639/2025-19</t>
+  </si>
+  <si>
+    <t>50500309474/2023-56</t>
+  </si>
+  <si>
+    <t>50500378813/2023-44</t>
+  </si>
+  <si>
+    <t>50500358741/2023-19</t>
+  </si>
+  <si>
+    <t>50500059857/2023-78</t>
+  </si>
+  <si>
+    <t>50500173307/2024-41</t>
+  </si>
+  <si>
+    <t>50500181321/2024-19</t>
+  </si>
+  <si>
+    <t>50500182826/2024-09</t>
+  </si>
+  <si>
+    <t>50500017922/2025-50</t>
+  </si>
+  <si>
+    <t>50500018386/2025-18</t>
+  </si>
+  <si>
+    <t>50500371721/2023-33</t>
+  </si>
+  <si>
+    <t>50500181913/2024-31</t>
+  </si>
+  <si>
+    <t>50500120195/2023-45</t>
+  </si>
+  <si>
+    <t>50500018855/2025-91</t>
+  </si>
+  <si>
+    <t>50500017607/2025-22</t>
+  </si>
+  <si>
+    <t>50500011147/2025-29</t>
+  </si>
+  <si>
+    <t>50500066867/2023-60</t>
+  </si>
+  <si>
+    <t>50500076404/2023-14</t>
+  </si>
+  <si>
+    <t>50500023866/2025-92</t>
+  </si>
+  <si>
+    <t>50500085873/2024-05</t>
+  </si>
+  <si>
+    <t>50500005463/2025-61</t>
+  </si>
+  <si>
+    <t>50500309032/2023-18</t>
+  </si>
+  <si>
+    <t>50500329925/2023-71</t>
+  </si>
+  <si>
+    <t>50500023827/2025-95</t>
+  </si>
+  <si>
+    <t>PROCESSO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +386,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +690,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>